--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\PycharmProjects\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\PycharmProjects\excel\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D820AE8B-26AF-4B1E-AC23-EC36A8742070}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91DD04D-FDF8-48A1-A1BC-57F806103A54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11325" yWindow="675" windowWidth="20910" windowHeight="11835" xr2:uid="{4EB65685-E610-482A-8179-8E17C5467165}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{4EB65685-E610-482A-8179-8E17C5467165}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6770ECEC-6911-4866-8477-4FF8172410A8}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
